--- a/strategy_hist_sum/residual_analysis_2_lv_2.xlsx
+++ b/strategy_hist_sum/residual_analysis_2_lv_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>F</t>
   </si>
@@ -34,10 +34,13 @@
     <t>reR</t>
   </si>
   <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>▽</t>
+  </si>
+  <si>
     <t>▲</t>
-  </si>
-  <si>
-    <t>▽</t>
   </si>
 </sst>
 </file>
@@ -395,13 +398,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,49 +429,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
       <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-      <c r="D4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
